--- a/Presentation/Outputs_in_Excel.xlsx
+++ b/Presentation/Outputs_in_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\SMU\MSDS_6306_Doing_Data_Science\HW_Data\6306-case-study-2\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D53D3-23FE-49C6-BB9D-F75D4EEAA61A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EA74A1-554C-4589-97BE-DD15941B2BB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15505" windowHeight="5750" xr2:uid="{7A8438DD-5E21-4B6B-97D1-0FA4CDB039FD}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,16 +87,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B3537"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,31 +144,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9B3537"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -437,265 +496,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCDDF8-8354-43FE-8419-B39405C10A60}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.76953125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.2265625" customWidth="1"/>
+    <col min="6" max="6" width="25.76953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.2265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.46870000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.8397</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.2777</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.48670000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.46870000000000001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.53120000000000001</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G10" s="3">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
         <v>0.46200000000000002</v>
       </c>
-      <c r="G3" s="1">
+      <c r="D11" s="3">
         <v>0.53790000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.47560000000000002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.52429999999999999</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G11" s="3">
+        <v>0.2666</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
         <v>0.40899999999999997</v>
       </c>
-      <c r="G4" s="1">
+      <c r="D12" s="3">
         <v>0.59089999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.48670000000000002</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.51319999999999999</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="F8" s="2" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="E9" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="E10" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="C17" s="3">
         <v>0.16020000000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="D17" s="3">
         <v>0.8397</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="E11" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="1">
+      <c r="C18" s="3">
         <v>0.2777</v>
       </c>
-      <c r="G11" s="1">
+      <c r="D18" s="3">
         <v>0.72219999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="E12" s="2" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.75">
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.16020000000000001</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.8397</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.75">
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.2777</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.72219999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.75">
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="22" spans="5:7" ht="36" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="F22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.75">
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.75">
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.26169999999999999</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.73819999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.75">
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.2666</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.73329999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.75">
-      <c r="E26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>